--- a/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>295500</v>
+        <v>298000</v>
       </c>
       <c r="E8" s="3">
-        <v>250600</v>
+        <v>288300</v>
       </c>
       <c r="F8" s="3">
-        <v>171300</v>
+        <v>244400</v>
       </c>
       <c r="G8" s="3">
-        <v>143800</v>
+        <v>167100</v>
       </c>
       <c r="H8" s="3">
-        <v>114100</v>
+        <v>140200</v>
       </c>
       <c r="I8" s="3">
-        <v>75700</v>
+        <v>111300</v>
       </c>
       <c r="J8" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K8" s="3">
         <v>50300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18600</v>
+        <v>16000</v>
       </c>
       <c r="E9" s="3">
-        <v>9400</v>
+        <v>18200</v>
       </c>
       <c r="F9" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="G9" s="3">
-        <v>4800</v>
+        <v>7900</v>
       </c>
       <c r="H9" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="I9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="J9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>276900</v>
+        <v>282000</v>
       </c>
       <c r="E10" s="3">
-        <v>241100</v>
+        <v>270100</v>
       </c>
       <c r="F10" s="3">
-        <v>163200</v>
+        <v>235200</v>
       </c>
       <c r="G10" s="3">
-        <v>138900</v>
+        <v>159200</v>
       </c>
       <c r="H10" s="3">
-        <v>110500</v>
+        <v>135500</v>
       </c>
       <c r="I10" s="3">
-        <v>71900</v>
+        <v>107700</v>
       </c>
       <c r="J10" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K10" s="3">
         <v>48700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="F12" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>6800</v>
       </c>
       <c r="H12" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45600</v>
+        <v>48700</v>
       </c>
       <c r="E15" s="3">
-        <v>39600</v>
+        <v>44500</v>
       </c>
       <c r="F15" s="3">
-        <v>28200</v>
+        <v>38600</v>
       </c>
       <c r="G15" s="3">
-        <v>20900</v>
+        <v>27500</v>
       </c>
       <c r="H15" s="3">
-        <v>14600</v>
+        <v>20400</v>
       </c>
       <c r="I15" s="3">
-        <v>10700</v>
+        <v>14200</v>
       </c>
       <c r="J15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>409700</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>415300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>399600</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>216800</v>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>164000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>211500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>160000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -968,28 +994,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-117300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-111400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>-73000</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-49900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-71300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-48700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,54 +1042,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>2000</v>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-107200</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-110800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-104600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-64700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-63100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1068,66 +1104,75 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="F22" s="3">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="G22" s="3">
-        <v>8800</v>
+        <v>10300</v>
       </c>
       <c r="H22" s="3">
-        <v>6600</v>
+        <v>8600</v>
       </c>
       <c r="I22" s="3">
-        <v>4600</v>
+        <v>6500</v>
       </c>
       <c r="J22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-126200</v>
+        <v>-128900</v>
       </c>
       <c r="E23" s="3">
-        <v>-118100</v>
+        <v>-123100</v>
       </c>
       <c r="F23" s="3">
-        <v>-117100</v>
+        <v>-115200</v>
       </c>
       <c r="G23" s="3">
-        <v>-79900</v>
+        <v>-114200</v>
       </c>
       <c r="H23" s="3">
-        <v>-56100</v>
+        <v>-77900</v>
       </c>
       <c r="I23" s="3">
-        <v>-37200</v>
+        <v>-54700</v>
       </c>
       <c r="J23" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-23300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1135,11 +1180,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1152,11 +1197,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,28 +1232,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-126200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-128900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-123100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
-        <v>-79900</v>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-77900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-54700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1213,28 +1264,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-138700</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-135300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
-        <v>-87900</v>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-57500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,57 +1424,63 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2000</v>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138700</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-135300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
-        <v>-87900</v>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-57500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,28 +1520,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138700</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-135300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="3">
-        <v>-87900</v>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-57500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54000</v>
+        <v>95900</v>
       </c>
       <c r="E41" s="3">
-        <v>104400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>52700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>101900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1601,10 +1693,10 @@
         <v>54600</v>
       </c>
       <c r="E43" s="3">
-        <v>48400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>53300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>47300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>318100</v>
+        <v>264400</v>
       </c>
       <c r="E45" s="3">
-        <v>369400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>310300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>360400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>426800</v>
+        <v>415000</v>
       </c>
       <c r="E46" s="3">
-        <v>522300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>416300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>509500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>430800</v>
+        <v>443300</v>
       </c>
       <c r="E48" s="3">
-        <v>406900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>420300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>396900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1873,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>73900</v>
+        <v>70000</v>
       </c>
       <c r="E49" s="3">
-        <v>77600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>72100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>75700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>169600</v>
+        <v>332100</v>
       </c>
       <c r="E52" s="3">
-        <v>147100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>165500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>143400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1101100</v>
+        <v>1260400</v>
       </c>
       <c r="E54" s="3">
-        <v>1153800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1074100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1125500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85500</v>
+        <v>101700</v>
       </c>
       <c r="E57" s="3">
-        <v>72000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>83400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>70200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1995,19 +2125,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>648300</v>
+        <v>639000</v>
       </c>
       <c r="E58" s="3">
-        <v>603800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>632400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>589000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>333000</v>
+        <v>368200</v>
       </c>
       <c r="E59" s="3">
-        <v>326600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>324800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>318600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1066800</v>
+        <v>1108900</v>
       </c>
       <c r="E60" s="3">
-        <v>1002400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>1040600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>977800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2221,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27900</v>
+        <v>93700</v>
       </c>
       <c r="E61" s="3">
-        <v>28900</v>
+        <v>27200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1098600</v>
+        <v>1206600</v>
       </c>
       <c r="E66" s="3">
-        <v>1035700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>1071600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1010300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,19 +2491,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>682800</v>
+        <v>854600</v>
       </c>
       <c r="E70" s="3">
-        <v>650500</v>
+        <v>666000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>634600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-667000</v>
+        <v>-792700</v>
       </c>
       <c r="E72" s="3">
-        <v>-528600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-650700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-515600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-680200</v>
+        <v>-800800</v>
       </c>
       <c r="E76" s="3">
-        <v>-532400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-663500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-519400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,62 +2747,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138700</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-135300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
-        <v>-87900</v>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-58900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-57500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-112000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-39500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-109300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-65300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,25 +3070,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-51300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-49400</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-89500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,25 +3164,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-51700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>-117900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-115000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>43700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>260800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>42600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>364600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>355600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3125,25 +3370,28 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>8300</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-3500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3154,25 +3402,28 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76700</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>162100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-74800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>176100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>171800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>298000</v>
+        <v>309200</v>
       </c>
       <c r="E8" s="3">
-        <v>288300</v>
+        <v>299100</v>
       </c>
       <c r="F8" s="3">
-        <v>244400</v>
+        <v>253600</v>
       </c>
       <c r="G8" s="3">
-        <v>167100</v>
+        <v>173400</v>
       </c>
       <c r="H8" s="3">
-        <v>140200</v>
+        <v>145500</v>
       </c>
       <c r="I8" s="3">
-        <v>111300</v>
+        <v>115500</v>
       </c>
       <c r="J8" s="3">
-        <v>73800</v>
+        <v>76600</v>
       </c>
       <c r="K8" s="3">
         <v>50300</v>
@@ -754,25 +754,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="E9" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="F9" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="G9" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="H9" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I9" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J9" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
@@ -786,25 +786,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>282000</v>
+        <v>292600</v>
       </c>
       <c r="E10" s="3">
-        <v>270100</v>
+        <v>280300</v>
       </c>
       <c r="F10" s="3">
-        <v>235200</v>
+        <v>244100</v>
       </c>
       <c r="G10" s="3">
-        <v>159200</v>
+        <v>165200</v>
       </c>
       <c r="H10" s="3">
-        <v>135500</v>
+        <v>140600</v>
       </c>
       <c r="I10" s="3">
-        <v>107700</v>
+        <v>111800</v>
       </c>
       <c r="J10" s="3">
-        <v>70100</v>
+        <v>72700</v>
       </c>
       <c r="K10" s="3">
         <v>48700</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F12" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="G12" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I12" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
@@ -928,25 +928,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="E15" s="3">
-        <v>44500</v>
+        <v>46200</v>
       </c>
       <c r="F15" s="3">
-        <v>38600</v>
+        <v>40100</v>
       </c>
       <c r="G15" s="3">
-        <v>27500</v>
+        <v>28500</v>
       </c>
       <c r="H15" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="I15" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="J15" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="K15" s="3">
         <v>7300</v>
@@ -971,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>415300</v>
+        <v>430900</v>
       </c>
       <c r="E17" s="3">
-        <v>399600</v>
+        <v>414700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>211500</v>
+        <v>219500</v>
       </c>
       <c r="I17" s="3">
-        <v>160000</v>
+        <v>166000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1003,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117300</v>
+        <v>-121700</v>
       </c>
       <c r="E18" s="3">
-        <v>-111400</v>
+        <v>-115600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-71300</v>
+        <v>-73900</v>
       </c>
       <c r="I18" s="3">
-        <v>-48700</v>
+        <v>-50500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-110800</v>
+        <v>-115000</v>
       </c>
       <c r="E21" s="3">
-        <v>-104600</v>
+        <v>-108600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-63100</v>
+        <v>-65500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E22" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G22" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="H22" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="I22" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K22" s="3">
         <v>3400</v>
@@ -1145,25 +1145,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-128900</v>
+        <v>-133800</v>
       </c>
       <c r="E23" s="3">
-        <v>-123100</v>
+        <v>-127700</v>
       </c>
       <c r="F23" s="3">
-        <v>-115200</v>
+        <v>-119500</v>
       </c>
       <c r="G23" s="3">
-        <v>-114200</v>
+        <v>-118500</v>
       </c>
       <c r="H23" s="3">
-        <v>-77900</v>
+        <v>-80900</v>
       </c>
       <c r="I23" s="3">
-        <v>-54700</v>
+        <v>-56700</v>
       </c>
       <c r="J23" s="3">
-        <v>-36300</v>
+        <v>-37700</v>
       </c>
       <c r="K23" s="3">
         <v>-23300</v>
@@ -1241,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-128900</v>
+        <v>-133800</v>
       </c>
       <c r="E26" s="3">
-        <v>-123100</v>
+        <v>-127700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-77900</v>
+        <v>-80900</v>
       </c>
       <c r="I26" s="3">
-        <v>-54700</v>
+        <v>-56700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1273,10 +1273,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-142200</v>
+        <v>-147500</v>
       </c>
       <c r="E27" s="3">
-        <v>-135300</v>
+        <v>-140400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1285,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="I27" s="3">
-        <v>-57500</v>
+        <v>-59600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
@@ -1465,10 +1465,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-142200</v>
+        <v>-147500</v>
       </c>
       <c r="E33" s="3">
-        <v>-135300</v>
+        <v>-140400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="I33" s="3">
-        <v>-57500</v>
+        <v>-59600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-142200</v>
+        <v>-147500</v>
       </c>
       <c r="E35" s="3">
-        <v>-135300</v>
+        <v>-140400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1541,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="I35" s="3">
-        <v>-57500</v>
+        <v>-59600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="E41" s="3">
-        <v>52700</v>
+        <v>54700</v>
       </c>
       <c r="F41" s="3">
-        <v>101900</v>
+        <v>105700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54600</v>
+        <v>56700</v>
       </c>
       <c r="E43" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="F43" s="3">
-        <v>47300</v>
+        <v>49000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264400</v>
+        <v>274400</v>
       </c>
       <c r="E45" s="3">
-        <v>310300</v>
+        <v>322000</v>
       </c>
       <c r="F45" s="3">
-        <v>360400</v>
+        <v>373900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>415000</v>
+        <v>430600</v>
       </c>
       <c r="E46" s="3">
-        <v>416300</v>
+        <v>432000</v>
       </c>
       <c r="F46" s="3">
-        <v>509500</v>
+        <v>528700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>443300</v>
+        <v>460000</v>
       </c>
       <c r="E48" s="3">
-        <v>420300</v>
+        <v>436100</v>
       </c>
       <c r="F48" s="3">
-        <v>396900</v>
+        <v>411800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1882,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70000</v>
+        <v>72700</v>
       </c>
       <c r="E49" s="3">
-        <v>72100</v>
+        <v>74800</v>
       </c>
       <c r="F49" s="3">
-        <v>75700</v>
+        <v>78500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1978,13 +1978,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="E52" s="3">
-        <v>165500</v>
+        <v>171700</v>
       </c>
       <c r="F52" s="3">
-        <v>143400</v>
+        <v>148800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1260400</v>
+        <v>1307900</v>
       </c>
       <c r="E54" s="3">
-        <v>1074100</v>
+        <v>1114600</v>
       </c>
       <c r="F54" s="3">
-        <v>1125500</v>
+        <v>1167900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101700</v>
+        <v>105500</v>
       </c>
       <c r="E57" s="3">
-        <v>83400</v>
+        <v>86500</v>
       </c>
       <c r="F57" s="3">
-        <v>70200</v>
+        <v>72800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2134,13 +2134,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>639000</v>
+        <v>663100</v>
       </c>
       <c r="E58" s="3">
-        <v>632400</v>
+        <v>656200</v>
       </c>
       <c r="F58" s="3">
-        <v>589000</v>
+        <v>611200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>368200</v>
+        <v>382000</v>
       </c>
       <c r="E59" s="3">
-        <v>324800</v>
+        <v>337100</v>
       </c>
       <c r="F59" s="3">
-        <v>318600</v>
+        <v>330600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1108900</v>
+        <v>1150600</v>
       </c>
       <c r="E60" s="3">
-        <v>1040600</v>
+        <v>1079800</v>
       </c>
       <c r="F60" s="3">
-        <v>977800</v>
+        <v>1014600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93700</v>
+        <v>97200</v>
       </c>
       <c r="E61" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="F61" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F62" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1206600</v>
+        <v>1252000</v>
       </c>
       <c r="E66" s="3">
-        <v>1071600</v>
+        <v>1111900</v>
       </c>
       <c r="F66" s="3">
-        <v>1010300</v>
+        <v>1048300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2500,13 +2500,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>854600</v>
+        <v>886800</v>
       </c>
       <c r="E70" s="3">
-        <v>666000</v>
+        <v>691100</v>
       </c>
       <c r="F70" s="3">
-        <v>634600</v>
+        <v>658500</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-792700</v>
+        <v>-822500</v>
       </c>
       <c r="E72" s="3">
-        <v>-650700</v>
+        <v>-675200</v>
       </c>
       <c r="F72" s="3">
-        <v>-515600</v>
+        <v>-535000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2692,13 +2692,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800800</v>
+        <v>-830900</v>
       </c>
       <c r="E76" s="3">
-        <v>-663500</v>
+        <v>-688500</v>
       </c>
       <c r="F76" s="3">
-        <v>-519400</v>
+        <v>-538900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-142200</v>
+        <v>-147500</v>
       </c>
       <c r="E81" s="3">
-        <v>-135300</v>
+        <v>-140400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2805,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="I81" s="3">
-        <v>-57500</v>
+        <v>-59600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3031,10 +3031,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39500</v>
+        <v>-40900</v>
       </c>
       <c r="E89" s="3">
-        <v>-109300</v>
+        <v>-113400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-65300</v>
+        <v>-67700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3077,11 +3077,11 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-49400</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-89500</v>
+        <v>-92900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3173,10 +3173,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51700</v>
+        <v>-53600</v>
       </c>
       <c r="E94" s="3">
-        <v>-16500</v>
+        <v>-17100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-115000</v>
+        <v>-119400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3347,10 +3347,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>260800</v>
+        <v>270600</v>
       </c>
       <c r="E100" s="3">
-        <v>42600</v>
+        <v>44200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3359,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>355600</v>
+        <v>369000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3379,10 +3379,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="E101" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3411,10 +3411,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>162100</v>
+        <v>168200</v>
       </c>
       <c r="E102" s="3">
-        <v>-74800</v>
+        <v>-77700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3423,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>171800</v>
+        <v>178300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>309200</v>
+        <v>323900</v>
       </c>
       <c r="E8" s="3">
-        <v>299100</v>
+        <v>313300</v>
       </c>
       <c r="F8" s="3">
-        <v>253600</v>
+        <v>265700</v>
       </c>
       <c r="G8" s="3">
-        <v>173400</v>
+        <v>181600</v>
       </c>
       <c r="H8" s="3">
-        <v>145500</v>
+        <v>152400</v>
       </c>
       <c r="I8" s="3">
-        <v>115500</v>
+        <v>121000</v>
       </c>
       <c r="J8" s="3">
-        <v>76600</v>
+        <v>80200</v>
       </c>
       <c r="K8" s="3">
         <v>50300</v>
@@ -754,25 +754,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16600</v>
+        <v>17400</v>
       </c>
       <c r="E9" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="F9" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="H9" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I9" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="J9" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
@@ -786,25 +786,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>292600</v>
+        <v>306500</v>
       </c>
       <c r="E10" s="3">
-        <v>280300</v>
+        <v>293600</v>
       </c>
       <c r="F10" s="3">
-        <v>244100</v>
+        <v>255600</v>
       </c>
       <c r="G10" s="3">
-        <v>165200</v>
+        <v>173000</v>
       </c>
       <c r="H10" s="3">
-        <v>140600</v>
+        <v>147300</v>
       </c>
       <c r="I10" s="3">
-        <v>111800</v>
+        <v>117100</v>
       </c>
       <c r="J10" s="3">
-        <v>72700</v>
+        <v>76200</v>
       </c>
       <c r="K10" s="3">
         <v>48700</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="E12" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="F12" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="G12" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H12" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J12" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
@@ -928,25 +928,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50500</v>
+        <v>52900</v>
       </c>
       <c r="E15" s="3">
-        <v>46200</v>
+        <v>48400</v>
       </c>
       <c r="F15" s="3">
-        <v>40100</v>
+        <v>42000</v>
       </c>
       <c r="G15" s="3">
-        <v>28500</v>
+        <v>29900</v>
       </c>
       <c r="H15" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="I15" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="J15" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="K15" s="3">
         <v>7300</v>
@@ -971,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>430900</v>
+        <v>451300</v>
       </c>
       <c r="E17" s="3">
-        <v>414700</v>
+        <v>434400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>219500</v>
+        <v>229900</v>
       </c>
       <c r="I17" s="3">
-        <v>166000</v>
+        <v>173900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1003,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-121700</v>
+        <v>-127400</v>
       </c>
       <c r="E18" s="3">
-        <v>-115600</v>
+        <v>-121100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-73900</v>
+        <v>-77400</v>
       </c>
       <c r="I18" s="3">
-        <v>-50500</v>
+        <v>-52900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-115000</v>
+        <v>-120400</v>
       </c>
       <c r="E21" s="3">
-        <v>-108600</v>
+        <v>-113700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-65500</v>
+        <v>-68600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="F22" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G22" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="H22" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="I22" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K22" s="3">
         <v>3400</v>
@@ -1145,25 +1145,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-133800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-127700</v>
-      </c>
       <c r="F23" s="3">
-        <v>-119500</v>
+        <v>-125200</v>
       </c>
       <c r="G23" s="3">
-        <v>-118500</v>
+        <v>-124200</v>
       </c>
       <c r="H23" s="3">
-        <v>-80900</v>
+        <v>-84700</v>
       </c>
       <c r="I23" s="3">
-        <v>-56700</v>
+        <v>-59400</v>
       </c>
       <c r="J23" s="3">
-        <v>-37700</v>
+        <v>-39500</v>
       </c>
       <c r="K23" s="3">
         <v>-23300</v>
@@ -1241,11 +1241,11 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-133800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-127700</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-80900</v>
+        <v>-84700</v>
       </c>
       <c r="I26" s="3">
-        <v>-56700</v>
+        <v>-59400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1273,10 +1273,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-147500</v>
+        <v>-154500</v>
       </c>
       <c r="E27" s="3">
-        <v>-140400</v>
+        <v>-147000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1285,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="I27" s="3">
-        <v>-59600</v>
+        <v>-62500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1433,10 +1433,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
@@ -1465,10 +1465,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-147500</v>
+        <v>-154500</v>
       </c>
       <c r="E33" s="3">
-        <v>-140400</v>
+        <v>-147000</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="I33" s="3">
-        <v>-59600</v>
+        <v>-62500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-147500</v>
+        <v>-154500</v>
       </c>
       <c r="E35" s="3">
-        <v>-140400</v>
+        <v>-147000</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1541,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="I35" s="3">
-        <v>-59600</v>
+        <v>-62500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99500</v>
+        <v>104200</v>
       </c>
       <c r="E41" s="3">
-        <v>54700</v>
+        <v>57300</v>
       </c>
       <c r="F41" s="3">
-        <v>105700</v>
+        <v>110700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1690,13 +1690,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56700</v>
+        <v>59400</v>
       </c>
       <c r="E43" s="3">
-        <v>55300</v>
+        <v>57900</v>
       </c>
       <c r="F43" s="3">
-        <v>49000</v>
+        <v>51400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>274400</v>
+        <v>287400</v>
       </c>
       <c r="E45" s="3">
-        <v>322000</v>
+        <v>337300</v>
       </c>
       <c r="F45" s="3">
-        <v>373900</v>
+        <v>391700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>430600</v>
+        <v>451100</v>
       </c>
       <c r="E46" s="3">
-        <v>432000</v>
+        <v>452500</v>
       </c>
       <c r="F46" s="3">
-        <v>528700</v>
+        <v>553800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>460000</v>
+        <v>481800</v>
       </c>
       <c r="E48" s="3">
-        <v>436100</v>
+        <v>456800</v>
       </c>
       <c r="F48" s="3">
-        <v>411800</v>
+        <v>431400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1882,13 +1882,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72700</v>
+        <v>76100</v>
       </c>
       <c r="E49" s="3">
-        <v>74800</v>
+        <v>78300</v>
       </c>
       <c r="F49" s="3">
-        <v>78500</v>
+        <v>82300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1978,13 +1978,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344600</v>
+        <v>360900</v>
       </c>
       <c r="E52" s="3">
-        <v>171700</v>
+        <v>179900</v>
       </c>
       <c r="F52" s="3">
-        <v>148800</v>
+        <v>155900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1307900</v>
+        <v>1369900</v>
       </c>
       <c r="E54" s="3">
-        <v>1114600</v>
+        <v>1167400</v>
       </c>
       <c r="F54" s="3">
-        <v>1167900</v>
+        <v>1223300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>105500</v>
+        <v>110500</v>
       </c>
       <c r="E57" s="3">
-        <v>86500</v>
+        <v>90600</v>
       </c>
       <c r="F57" s="3">
-        <v>72800</v>
+        <v>76300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2134,13 +2134,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>663100</v>
+        <v>694500</v>
       </c>
       <c r="E58" s="3">
-        <v>656200</v>
+        <v>687300</v>
       </c>
       <c r="F58" s="3">
-        <v>611200</v>
+        <v>640200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>382000</v>
+        <v>400200</v>
       </c>
       <c r="E59" s="3">
-        <v>337100</v>
+        <v>353000</v>
       </c>
       <c r="F59" s="3">
-        <v>330600</v>
+        <v>346300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1150600</v>
+        <v>1205200</v>
       </c>
       <c r="E60" s="3">
-        <v>1079800</v>
+        <v>1131000</v>
       </c>
       <c r="F60" s="3">
-        <v>1014600</v>
+        <v>1062800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>97200</v>
+        <v>101800</v>
       </c>
       <c r="E61" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="F61" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1252000</v>
+        <v>1311400</v>
       </c>
       <c r="E66" s="3">
-        <v>1111900</v>
+        <v>1164700</v>
       </c>
       <c r="F66" s="3">
-        <v>1048300</v>
+        <v>1098100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2500,13 +2500,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>886800</v>
+        <v>928900</v>
       </c>
       <c r="E70" s="3">
-        <v>691100</v>
+        <v>723900</v>
       </c>
       <c r="F70" s="3">
-        <v>658500</v>
+        <v>689700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-822500</v>
+        <v>-861600</v>
       </c>
       <c r="E72" s="3">
-        <v>-675200</v>
+        <v>-707200</v>
       </c>
       <c r="F72" s="3">
-        <v>-535000</v>
+        <v>-560400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2692,13 +2692,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-830900</v>
+        <v>-870400</v>
       </c>
       <c r="E76" s="3">
-        <v>-688500</v>
+        <v>-721100</v>
       </c>
       <c r="F76" s="3">
-        <v>-538900</v>
+        <v>-564500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-147500</v>
+        <v>-154500</v>
       </c>
       <c r="E81" s="3">
-        <v>-140400</v>
+        <v>-147000</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2805,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="I81" s="3">
-        <v>-59600</v>
+        <v>-62500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3031,10 +3031,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40900</v>
+        <v>-42900</v>
       </c>
       <c r="E89" s="3">
-        <v>-113400</v>
+        <v>-118800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-67700</v>
+        <v>-71000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3077,10 +3077,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53200</v>
+        <v>-55700</v>
       </c>
       <c r="E91" s="3">
-        <v>-51300</v>
+        <v>-53700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3089,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-92900</v>
+        <v>-97300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3173,10 +3173,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53600</v>
+        <v>-56200</v>
       </c>
       <c r="E94" s="3">
-        <v>-17100</v>
+        <v>-17900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-119400</v>
+        <v>-125000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3347,10 +3347,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>270600</v>
+        <v>283400</v>
       </c>
       <c r="E100" s="3">
-        <v>44200</v>
+        <v>46300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3359,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>369000</v>
+        <v>386500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3379,10 +3379,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3411,10 +3411,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>168200</v>
+        <v>176200</v>
       </c>
       <c r="E102" s="3">
-        <v>-77700</v>
+        <v>-81300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3423,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>178300</v>
+        <v>186700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>DNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>323900</v>
+        <v>296300</v>
       </c>
       <c r="E8" s="3">
-        <v>313300</v>
+        <v>325300</v>
       </c>
       <c r="F8" s="3">
-        <v>265700</v>
+        <v>314700</v>
       </c>
       <c r="G8" s="3">
-        <v>181600</v>
+        <v>266800</v>
       </c>
       <c r="H8" s="3">
-        <v>152400</v>
+        <v>182400</v>
       </c>
       <c r="I8" s="3">
-        <v>121000</v>
+        <v>153100</v>
       </c>
       <c r="J8" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K8" s="3">
         <v>80200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17400</v>
+        <v>11600</v>
       </c>
       <c r="E9" s="3">
-        <v>19700</v>
+        <v>17500</v>
       </c>
       <c r="F9" s="3">
-        <v>10000</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H9" s="3">
         <v>8600</v>
       </c>
-      <c r="H9" s="3">
-        <v>5100</v>
-      </c>
       <c r="I9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>306500</v>
+        <v>284700</v>
       </c>
       <c r="E10" s="3">
-        <v>293600</v>
+        <v>307900</v>
       </c>
       <c r="F10" s="3">
-        <v>255600</v>
+        <v>294800</v>
       </c>
       <c r="G10" s="3">
-        <v>173000</v>
+        <v>256800</v>
       </c>
       <c r="H10" s="3">
-        <v>147300</v>
+        <v>173700</v>
       </c>
       <c r="I10" s="3">
-        <v>117100</v>
+        <v>147900</v>
       </c>
       <c r="J10" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K10" s="3">
         <v>76200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>48700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
-        <v>6000</v>
-      </c>
       <c r="I12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +907,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>13700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,40 +942,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52900</v>
+        <v>50200</v>
       </c>
       <c r="E15" s="3">
-        <v>48400</v>
+        <v>53100</v>
       </c>
       <c r="F15" s="3">
-        <v>42000</v>
+        <v>48600</v>
       </c>
       <c r="G15" s="3">
-        <v>29900</v>
+        <v>42200</v>
       </c>
       <c r="H15" s="3">
-        <v>22200</v>
+        <v>30000</v>
       </c>
       <c r="I15" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J15" s="3">
         <v>15500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>451300</v>
+        <v>473900</v>
       </c>
       <c r="E17" s="3">
-        <v>434400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>453300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>436300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>382000</v>
       </c>
       <c r="H17" s="3">
-        <v>229900</v>
+        <v>299000</v>
       </c>
       <c r="I17" s="3">
-        <v>173900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>230900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>174700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -997,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-127400</v>
+        <v>-177500</v>
       </c>
       <c r="E18" s="3">
-        <v>-121100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-128000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-115200</v>
       </c>
       <c r="H18" s="3">
-        <v>-77400</v>
+        <v>-116600</v>
       </c>
       <c r="I18" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-77800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-53200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,31 +1076,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>3200</v>
       </c>
       <c r="H20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
-        <v>500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1075,28 +1109,31 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-120400</v>
+        <v>-125800</v>
       </c>
       <c r="E21" s="3">
-        <v>-113700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-120900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-114200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-68600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-68900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1107,87 +1144,96 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15100</v>
+        <v>12900</v>
       </c>
       <c r="E22" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F22" s="3">
         <v>13700</v>
       </c>
-      <c r="F22" s="3">
-        <v>13600</v>
-      </c>
       <c r="G22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H22" s="3">
         <v>11200</v>
       </c>
-      <c r="H22" s="3">
-        <v>9300</v>
-      </c>
       <c r="I22" s="3">
-        <v>7000</v>
+        <v>9400</v>
       </c>
       <c r="J22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140100</v>
+        <v>-188900</v>
       </c>
       <c r="E23" s="3">
-        <v>-133800</v>
+        <v>-140700</v>
       </c>
       <c r="F23" s="3">
-        <v>-125200</v>
+        <v>-134300</v>
       </c>
       <c r="G23" s="3">
-        <v>-124200</v>
+        <v>-125700</v>
       </c>
       <c r="H23" s="3">
-        <v>-84700</v>
+        <v>-124700</v>
       </c>
       <c r="I23" s="3">
-        <v>-59400</v>
+        <v>-85100</v>
       </c>
       <c r="J23" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-39500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1200,11 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-140100</v>
+        <v>-188600</v>
       </c>
       <c r="E26" s="3">
-        <v>-133800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-140700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-125400</v>
       </c>
       <c r="H26" s="3">
-        <v>-84700</v>
+        <v>-124700</v>
       </c>
       <c r="I26" s="3">
-        <v>-59400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-85100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-59700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1267,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-154500</v>
+        <v>-192300</v>
       </c>
       <c r="E27" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-155200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-150500</v>
       </c>
       <c r="H27" s="3">
-        <v>-93200</v>
+        <v>-136800</v>
       </c>
       <c r="I27" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-93600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,31 +1494,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-3200</v>
       </c>
       <c r="H32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1459,31 +1529,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-154500</v>
+        <v>-192300</v>
       </c>
       <c r="E33" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-155200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-150500</v>
       </c>
       <c r="H33" s="3">
-        <v>-93200</v>
+        <v>-136800</v>
       </c>
       <c r="I33" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-93600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-154500</v>
+        <v>-192300</v>
       </c>
       <c r="E35" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-155200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-150500</v>
       </c>
       <c r="H35" s="3">
-        <v>-93200</v>
+        <v>-136800</v>
       </c>
       <c r="I35" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-93600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1706,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104200</v>
+        <v>126300</v>
       </c>
       <c r="E41" s="3">
-        <v>57300</v>
+        <v>104700</v>
       </c>
       <c r="F41" s="3">
-        <v>110700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>57500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>111200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,22 +1774,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>57900</v>
+        <v>59700</v>
       </c>
       <c r="F43" s="3">
-        <v>51400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>58200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>51600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1844,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>287400</v>
+        <v>327000</v>
       </c>
       <c r="E45" s="3">
-        <v>337300</v>
+        <v>288700</v>
       </c>
       <c r="F45" s="3">
-        <v>391700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>338700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>393400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1780,22 +1879,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>451100</v>
+        <v>453700</v>
       </c>
       <c r="E46" s="3">
-        <v>452500</v>
+        <v>453000</v>
       </c>
       <c r="F46" s="3">
-        <v>553800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>454400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>556200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,22 +1949,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>481800</v>
+        <v>440200</v>
       </c>
       <c r="E48" s="3">
-        <v>456800</v>
+        <v>483900</v>
       </c>
       <c r="F48" s="3">
-        <v>431400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>458700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>433200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1876,22 +1984,25 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>76100</v>
+        <v>74200</v>
       </c>
       <c r="E49" s="3">
-        <v>78300</v>
+        <v>76400</v>
       </c>
       <c r="F49" s="3">
-        <v>82300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>78700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>82600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,22 +2089,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>360900</v>
+        <v>452900</v>
       </c>
       <c r="E52" s="3">
-        <v>179900</v>
+        <v>362500</v>
       </c>
       <c r="F52" s="3">
-        <v>155900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>180600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>156600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2159,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1369900</v>
+        <v>1420900</v>
       </c>
       <c r="E54" s="3">
-        <v>1167400</v>
+        <v>1375900</v>
       </c>
       <c r="F54" s="3">
-        <v>1223300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1172500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1228600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2226,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110500</v>
+        <v>99600</v>
       </c>
       <c r="E57" s="3">
-        <v>90600</v>
+        <v>111000</v>
       </c>
       <c r="F57" s="3">
-        <v>76300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>91000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>76600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2128,22 +2259,25 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>694500</v>
+        <v>718100</v>
       </c>
       <c r="E58" s="3">
-        <v>687300</v>
+        <v>697500</v>
       </c>
       <c r="F58" s="3">
-        <v>640200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>690300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>643000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2160,22 +2294,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400200</v>
+        <v>458100</v>
       </c>
       <c r="E59" s="3">
-        <v>353000</v>
+        <v>401900</v>
       </c>
       <c r="F59" s="3">
-        <v>346300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>354600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>347800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2192,22 +2329,25 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1205200</v>
+        <v>1275800</v>
       </c>
       <c r="E60" s="3">
-        <v>1131000</v>
+        <v>1210400</v>
       </c>
       <c r="F60" s="3">
-        <v>1062800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>1135900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1067400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2224,22 +2364,25 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101800</v>
+        <v>101600</v>
       </c>
       <c r="E61" s="3">
-        <v>29500</v>
+        <v>102200</v>
       </c>
       <c r="F61" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>30700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2256,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G62" s="3">
         <v>5200</v>
       </c>
-      <c r="E62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2539,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1311400</v>
+        <v>1377600</v>
       </c>
       <c r="E66" s="3">
-        <v>1164700</v>
+        <v>1317100</v>
       </c>
       <c r="F66" s="3">
-        <v>1098100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1169800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1102800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,22 +2659,25 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>928900</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>723900</v>
+        <v>932900</v>
       </c>
       <c r="F70" s="3">
-        <v>689700</v>
+        <v>727000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>692700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2729,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-861600</v>
+        <v>-1057600</v>
       </c>
       <c r="E72" s="3">
-        <v>-707200</v>
+        <v>-865300</v>
       </c>
       <c r="F72" s="3">
-        <v>-560400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-710300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-562900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2869,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-870400</v>
+        <v>43300</v>
       </c>
       <c r="E76" s="3">
-        <v>-721100</v>
+        <v>-874100</v>
       </c>
       <c r="F76" s="3">
-        <v>-564500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-724300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-566900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-154500</v>
+        <v>-192300</v>
       </c>
       <c r="E81" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-155200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-150500</v>
       </c>
       <c r="H81" s="3">
-        <v>-93200</v>
+        <v>-136800</v>
       </c>
       <c r="I81" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-93600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,28 +3239,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-42900</v>
+        <v>-96700</v>
       </c>
       <c r="E89" s="3">
-        <v>-118800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-43100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-119300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-71000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-71300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,28 +3291,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-55700</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-53700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-56000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-54000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-97300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-97700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,28 +3394,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56200</v>
+        <v>-98000</v>
       </c>
       <c r="E94" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-18000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-125000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-125600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,28 +3584,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>283400</v>
+        <v>378300</v>
       </c>
       <c r="E100" s="3">
-        <v>46300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>284700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>46500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>386500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>388200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3373,29 +3619,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>9100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3405,28 +3654,31 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>176200</v>
+        <v>172500</v>
       </c>
       <c r="E102" s="3">
-        <v>-81300</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>176900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-81700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>186700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>187600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DNK_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>296300</v>
+        <v>302600</v>
       </c>
       <c r="E8" s="3">
-        <v>325300</v>
+        <v>332200</v>
       </c>
       <c r="F8" s="3">
-        <v>314700</v>
+        <v>321300</v>
       </c>
       <c r="G8" s="3">
-        <v>266800</v>
+        <v>272500</v>
       </c>
       <c r="H8" s="3">
-        <v>182400</v>
+        <v>186200</v>
       </c>
       <c r="I8" s="3">
-        <v>153100</v>
+        <v>156300</v>
       </c>
       <c r="J8" s="3">
-        <v>121500</v>
+        <v>124100</v>
       </c>
       <c r="K8" s="3">
         <v>80200</v>
@@ -761,25 +761,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="E9" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="F9" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="G9" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H9" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I9" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J9" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K9" s="3">
         <v>4000</v>
@@ -796,25 +796,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>284700</v>
+        <v>290700</v>
       </c>
       <c r="E10" s="3">
-        <v>307900</v>
+        <v>314400</v>
       </c>
       <c r="F10" s="3">
-        <v>294800</v>
+        <v>301100</v>
       </c>
       <c r="G10" s="3">
-        <v>256800</v>
+        <v>262200</v>
       </c>
       <c r="H10" s="3">
-        <v>173700</v>
+        <v>177400</v>
       </c>
       <c r="I10" s="3">
-        <v>147900</v>
+        <v>151100</v>
       </c>
       <c r="J10" s="3">
-        <v>117600</v>
+        <v>120100</v>
       </c>
       <c r="K10" s="3">
         <v>76200</v>
@@ -846,25 +846,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E12" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7400</v>
-      </c>
       <c r="I12" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J12" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K12" s="3">
         <v>3400</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -951,25 +951,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50200</v>
+        <v>51200</v>
       </c>
       <c r="E15" s="3">
-        <v>53100</v>
+        <v>54300</v>
       </c>
       <c r="F15" s="3">
-        <v>48600</v>
+        <v>49600</v>
       </c>
       <c r="G15" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="H15" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="I15" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="J15" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="K15" s="3">
         <v>11400</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>473900</v>
+        <v>483900</v>
       </c>
       <c r="E17" s="3">
-        <v>453300</v>
+        <v>462900</v>
       </c>
       <c r="F17" s="3">
-        <v>436300</v>
+        <v>445500</v>
       </c>
       <c r="G17" s="3">
-        <v>382000</v>
+        <v>390100</v>
       </c>
       <c r="H17" s="3">
-        <v>299000</v>
+        <v>305300</v>
       </c>
       <c r="I17" s="3">
-        <v>230900</v>
+        <v>235700</v>
       </c>
       <c r="J17" s="3">
-        <v>174700</v>
+        <v>178400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-177500</v>
+        <v>-181300</v>
       </c>
       <c r="E18" s="3">
-        <v>-128000</v>
+        <v>-130700</v>
       </c>
       <c r="F18" s="3">
-        <v>-121600</v>
+        <v>-124200</v>
       </c>
       <c r="G18" s="3">
-        <v>-115200</v>
+        <v>-117600</v>
       </c>
       <c r="H18" s="3">
-        <v>-116600</v>
+        <v>-119100</v>
       </c>
       <c r="I18" s="3">
-        <v>-77800</v>
+        <v>-79400</v>
       </c>
       <c r="J18" s="3">
-        <v>-53200</v>
+        <v>-54300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1095,10 +1095,10 @@
         <v>3200</v>
       </c>
       <c r="H20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I20" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J20" s="3">
         <v>600</v>
@@ -1118,13 +1118,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-125800</v>
+        <v>-128500</v>
       </c>
       <c r="E21" s="3">
-        <v>-120900</v>
+        <v>-123500</v>
       </c>
       <c r="F21" s="3">
-        <v>-114200</v>
+        <v>-116600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-68900</v>
+        <v>-70400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1153,25 +1153,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="E22" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="F22" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="H22" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="I22" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J22" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K22" s="3">
         <v>4900</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-188900</v>
+        <v>-192900</v>
       </c>
       <c r="E23" s="3">
-        <v>-140700</v>
+        <v>-143700</v>
       </c>
       <c r="F23" s="3">
-        <v>-134300</v>
+        <v>-137200</v>
       </c>
       <c r="G23" s="3">
-        <v>-125700</v>
+        <v>-128400</v>
       </c>
       <c r="H23" s="3">
-        <v>-124700</v>
+        <v>-127300</v>
       </c>
       <c r="I23" s="3">
-        <v>-85100</v>
+        <v>-86900</v>
       </c>
       <c r="J23" s="3">
-        <v>-59700</v>
+        <v>-60900</v>
       </c>
       <c r="K23" s="3">
         <v>-39500</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-188600</v>
+        <v>-192600</v>
       </c>
       <c r="E26" s="3">
-        <v>-140700</v>
+        <v>-143700</v>
       </c>
       <c r="F26" s="3">
-        <v>-134300</v>
+        <v>-137200</v>
       </c>
       <c r="G26" s="3">
-        <v>-125400</v>
+        <v>-128000</v>
       </c>
       <c r="H26" s="3">
-        <v>-124700</v>
+        <v>-127300</v>
       </c>
       <c r="I26" s="3">
-        <v>-85100</v>
+        <v>-86900</v>
       </c>
       <c r="J26" s="3">
-        <v>-59700</v>
+        <v>-60900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-192300</v>
+        <v>-196400</v>
       </c>
       <c r="E27" s="3">
-        <v>-155200</v>
+        <v>-158500</v>
       </c>
       <c r="F27" s="3">
-        <v>-147700</v>
+        <v>-150800</v>
       </c>
       <c r="G27" s="3">
-        <v>-150500</v>
+        <v>-153700</v>
       </c>
       <c r="H27" s="3">
-        <v>-136800</v>
+        <v>-139700</v>
       </c>
       <c r="I27" s="3">
-        <v>-93600</v>
+        <v>-95600</v>
       </c>
       <c r="J27" s="3">
-        <v>-62700</v>
+        <v>-64100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1515,10 +1515,10 @@
         <v>-3200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J32" s="3">
         <v>-600</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-192300</v>
+        <v>-196400</v>
       </c>
       <c r="E33" s="3">
-        <v>-155200</v>
+        <v>-158500</v>
       </c>
       <c r="F33" s="3">
-        <v>-147700</v>
+        <v>-150800</v>
       </c>
       <c r="G33" s="3">
-        <v>-150500</v>
+        <v>-153700</v>
       </c>
       <c r="H33" s="3">
-        <v>-136800</v>
+        <v>-139700</v>
       </c>
       <c r="I33" s="3">
-        <v>-93600</v>
+        <v>-95600</v>
       </c>
       <c r="J33" s="3">
-        <v>-62700</v>
+        <v>-64100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-192300</v>
+        <v>-196400</v>
       </c>
       <c r="E35" s="3">
-        <v>-155200</v>
+        <v>-158500</v>
       </c>
       <c r="F35" s="3">
-        <v>-147700</v>
+        <v>-150800</v>
       </c>
       <c r="G35" s="3">
-        <v>-150500</v>
+        <v>-153700</v>
       </c>
       <c r="H35" s="3">
-        <v>-136800</v>
+        <v>-139700</v>
       </c>
       <c r="I35" s="3">
-        <v>-93600</v>
+        <v>-95600</v>
       </c>
       <c r="J35" s="3">
-        <v>-62700</v>
+        <v>-64100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1713,16 +1713,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126300</v>
+        <v>128900</v>
       </c>
       <c r="E41" s="3">
-        <v>104700</v>
+        <v>106900</v>
       </c>
       <c r="F41" s="3">
-        <v>57500</v>
+        <v>58700</v>
       </c>
       <c r="G41" s="3">
-        <v>111200</v>
+        <v>113500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>59700</v>
+        <v>60900</v>
       </c>
       <c r="F43" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="G43" s="3">
-        <v>51600</v>
+        <v>52700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1853,16 +1853,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>327000</v>
+        <v>333900</v>
       </c>
       <c r="E45" s="3">
-        <v>288700</v>
+        <v>294800</v>
       </c>
       <c r="F45" s="3">
-        <v>338700</v>
+        <v>345900</v>
       </c>
       <c r="G45" s="3">
-        <v>393400</v>
+        <v>401700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1888,16 +1888,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>453700</v>
+        <v>463300</v>
       </c>
       <c r="E46" s="3">
-        <v>453000</v>
+        <v>462600</v>
       </c>
       <c r="F46" s="3">
-        <v>454400</v>
+        <v>464000</v>
       </c>
       <c r="G46" s="3">
-        <v>556200</v>
+        <v>567900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1958,16 +1958,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>440200</v>
+        <v>449500</v>
       </c>
       <c r="E48" s="3">
-        <v>483900</v>
+        <v>494200</v>
       </c>
       <c r="F48" s="3">
-        <v>458700</v>
+        <v>468400</v>
       </c>
       <c r="G48" s="3">
-        <v>433200</v>
+        <v>442400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>74200</v>
+        <v>75800</v>
       </c>
       <c r="E49" s="3">
-        <v>76400</v>
+        <v>78100</v>
       </c>
       <c r="F49" s="3">
-        <v>78700</v>
+        <v>80300</v>
       </c>
       <c r="G49" s="3">
-        <v>82600</v>
+        <v>84400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>452900</v>
+        <v>462400</v>
       </c>
       <c r="E52" s="3">
-        <v>362500</v>
+        <v>370100</v>
       </c>
       <c r="F52" s="3">
-        <v>180600</v>
+        <v>184500</v>
       </c>
       <c r="G52" s="3">
-        <v>156600</v>
+        <v>159900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2168,16 +2168,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1420900</v>
+        <v>1451000</v>
       </c>
       <c r="E54" s="3">
-        <v>1375900</v>
+        <v>1405000</v>
       </c>
       <c r="F54" s="3">
-        <v>1172500</v>
+        <v>1197300</v>
       </c>
       <c r="G54" s="3">
-        <v>1228600</v>
+        <v>1254600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2233,16 +2233,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99600</v>
+        <v>101700</v>
       </c>
       <c r="E57" s="3">
-        <v>111000</v>
+        <v>113300</v>
       </c>
       <c r="F57" s="3">
-        <v>91000</v>
+        <v>92900</v>
       </c>
       <c r="G57" s="3">
-        <v>76600</v>
+        <v>78200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2268,16 +2268,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>718100</v>
+        <v>733300</v>
       </c>
       <c r="E58" s="3">
-        <v>697500</v>
+        <v>712300</v>
       </c>
       <c r="F58" s="3">
-        <v>690300</v>
+        <v>704900</v>
       </c>
       <c r="G58" s="3">
-        <v>643000</v>
+        <v>656600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2303,16 +2303,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>458100</v>
+        <v>467800</v>
       </c>
       <c r="E59" s="3">
-        <v>401900</v>
+        <v>410400</v>
       </c>
       <c r="F59" s="3">
-        <v>354600</v>
+        <v>362100</v>
       </c>
       <c r="G59" s="3">
-        <v>347800</v>
+        <v>355100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2338,16 +2338,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1275800</v>
+        <v>1302800</v>
       </c>
       <c r="E60" s="3">
-        <v>1210400</v>
+        <v>1236000</v>
       </c>
       <c r="F60" s="3">
-        <v>1135900</v>
+        <v>1159900</v>
       </c>
       <c r="G60" s="3">
-        <v>1067400</v>
+        <v>1089900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2373,16 +2373,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101600</v>
+        <v>103800</v>
       </c>
       <c r="E61" s="3">
-        <v>102200</v>
+        <v>104400</v>
       </c>
       <c r="F61" s="3">
-        <v>29700</v>
+        <v>30300</v>
       </c>
       <c r="G61" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2548,16 +2548,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1377600</v>
+        <v>1406700</v>
       </c>
       <c r="E66" s="3">
-        <v>1317100</v>
+        <v>1344900</v>
       </c>
       <c r="F66" s="3">
-        <v>1169800</v>
+        <v>1194500</v>
       </c>
       <c r="G66" s="3">
-        <v>1102800</v>
+        <v>1126200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>932900</v>
+        <v>952600</v>
       </c>
       <c r="F70" s="3">
-        <v>727000</v>
+        <v>742400</v>
       </c>
       <c r="G70" s="3">
-        <v>692700</v>
+        <v>707300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2738,16 +2738,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1057600</v>
+        <v>-1079900</v>
       </c>
       <c r="E72" s="3">
-        <v>-865300</v>
+        <v>-883600</v>
       </c>
       <c r="F72" s="3">
-        <v>-710300</v>
+        <v>-725300</v>
       </c>
       <c r="G72" s="3">
-        <v>-562900</v>
+        <v>-574800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2878,16 +2878,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43300</v>
+        <v>44200</v>
       </c>
       <c r="E76" s="3">
-        <v>-874100</v>
+        <v>-892600</v>
       </c>
       <c r="F76" s="3">
-        <v>-724300</v>
+        <v>-739600</v>
       </c>
       <c r="G76" s="3">
-        <v>-566900</v>
+        <v>-578900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-192300</v>
+        <v>-196400</v>
       </c>
       <c r="E81" s="3">
-        <v>-155200</v>
+        <v>-158500</v>
       </c>
       <c r="F81" s="3">
-        <v>-147700</v>
+        <v>-150800</v>
       </c>
       <c r="G81" s="3">
-        <v>-150500</v>
+        <v>-153700</v>
       </c>
       <c r="H81" s="3">
-        <v>-136800</v>
+        <v>-139700</v>
       </c>
       <c r="I81" s="3">
-        <v>-93600</v>
+        <v>-95600</v>
       </c>
       <c r="J81" s="3">
-        <v>-62700</v>
+        <v>-64100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3248,13 +3248,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-96700</v>
+        <v>-98800</v>
       </c>
       <c r="E89" s="3">
-        <v>-43100</v>
+        <v>-44000</v>
       </c>
       <c r="F89" s="3">
-        <v>-119300</v>
+        <v>-121800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3263,7 +3263,7 @@
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-71300</v>
+        <v>-72800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3301,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-56000</v>
+        <v>-57100</v>
       </c>
       <c r="F91" s="3">
-        <v>-54000</v>
+        <v>-55100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>-97700</v>
+        <v>-99800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3403,13 +3403,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-98000</v>
+        <v>-100100</v>
       </c>
       <c r="E94" s="3">
-        <v>-56400</v>
+        <v>-57600</v>
       </c>
       <c r="F94" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-125600</v>
+        <v>-128200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3593,13 +3593,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>378300</v>
+        <v>386300</v>
       </c>
       <c r="E100" s="3">
-        <v>284700</v>
+        <v>290700</v>
       </c>
       <c r="F100" s="3">
-        <v>46500</v>
+        <v>47500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>388200</v>
+        <v>396400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3628,13 +3628,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="F101" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3643,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3663,13 +3663,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>172500</v>
+        <v>176200</v>
       </c>
       <c r="E102" s="3">
-        <v>176900</v>
+        <v>180700</v>
       </c>
       <c r="F102" s="3">
-        <v>-81700</v>
+        <v>-83400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3678,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>187600</v>
+        <v>191500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
